--- a/List of Papers.xlsx
+++ b/List of Papers.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/SPRINGER - Enhanced Maintenance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E359D77-1530-4972-8599-D702B9C06678}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025292BB-B30E-4C8C-BEB5-EA5E7024A364}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="List of Papers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,26 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="158">
   <si>
     <t>Paper Title</t>
   </si>
   <si>
-    <t>A Literature Review for the Application of Artificial Intelligence in the Maintenance of Railway Operations with an Emphasis on Data</t>
-  </si>
-  <si>
-    <t>A Review of Literature and Public Datasets for the Application of Artificial Intelligence in the Railway Industry [dissertation]</t>
-  </si>
-  <si>
-    <t>A Literature Review of Artificial Intelligence Applications in Railway Systems</t>
-  </si>
-  <si>
-    <t>A Systematic Review of Artificial Intelligence Public Datasets for Railway Applications</t>
-  </si>
-  <si>
-    <t>The Recent Applications of Machine Learning in Rail Track Maintenance: A Survey</t>
-  </si>
-  <si>
     <t>Reference no.</t>
   </si>
   <si>
@@ -54,54 +39,6 @@
     <t>Author(s)</t>
   </si>
   <si>
-    <t>Pappaterra MJ</t>
-  </si>
-  <si>
-    <t>Tang R, De Donato L, Besinović N, Flammini F, Goverde RM, Lin Z, Liu R, Tang T, Vittorini V, Wang Z</t>
-  </si>
-  <si>
-    <t>Pappaterra MJ, Flammini F, Vittorini V, Bešinović N</t>
-  </si>
-  <si>
-    <t>Nakhaee MC, Hiemstra D, Stoelinga M, Noort MV</t>
-  </si>
-  <si>
-    <t>Survey on railway wheel defect detection using machine learning</t>
-  </si>
-  <si>
-    <t>Thilagavathy N, Harene J, Sherine M, Shanmugasundari T</t>
-  </si>
-  <si>
-    <t>On the fault detection and diagnosis of railway switch and crossing systems: An overview</t>
-  </si>
-  <si>
-    <t>Hamadache M, Dutta S, Olaby O, Ambur R, Stewart E, Dixon R</t>
-  </si>
-  <si>
-    <t>A review of applications of visual inspection technology based on image processing in the railway industry</t>
-  </si>
-  <si>
-    <t>Liu S, Wang Q, Luo Y</t>
-  </si>
-  <si>
-    <t>A Survey on Audio-Video based Defect Detection through Deep Learning in Railway Maintenance</t>
-  </si>
-  <si>
-    <t>De Donato L, Flammini F, Marrone S, Mazzariello C, Nardone R, Sansone C, Vittorini V</t>
-  </si>
-  <si>
-    <t>Slab track systems for high-speed railways [dissertation]</t>
-  </si>
-  <si>
-    <t>Michas G</t>
-  </si>
-  <si>
-    <t>A Comprehensive Guide to Convolutional Neural Networks – the ELI5 way</t>
-  </si>
-  <si>
-    <t>Saha S</t>
-  </si>
-  <si>
     <t>Classification of Rail Track Crack using CNN with Pre-Trained VGG16 Model</t>
   </si>
   <si>
@@ -132,12 +69,6 @@
     <t>Meng S, Kuang S, Ma Z, Wu Y</t>
   </si>
   <si>
-    <t>Rail-5k: a Real-World Dataset for Railway Surface Defects Detection (Version 1) [Dataset]</t>
-  </si>
-  <si>
-    <t>Zhang Z</t>
-  </si>
-  <si>
     <t>Detecting Flaws on Railways Using Semantic Segmentation</t>
   </si>
   <si>
@@ -568,9 +499,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>---</t>
   </si>
 </sst>
 </file>
@@ -633,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -659,9 +587,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,6 +602,257 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{106BC11A-EEAF-4E27-B22A-B574E17BE57E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11425070" y="477369"/>
+          <a:ext cx="3091030" cy="1602891"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Main Applications</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A = Surface defect detection</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B = Fastener</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C = Joints</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D = Sleepers</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E = Switches and crossings</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>F = Detection of objects and components</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>G = Monitoring</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -942,11 +1118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,1291 +1136,1054 @@
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <v>2022</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>181</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>181</v>
+      <c r="E4" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>181</v>
+      <c r="E5" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>181</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>181</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>181</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>181</v>
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>181</v>
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>181</v>
+        <v>25</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>2022</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
         <v>2021</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2020</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>2022</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1">
         <v>2022</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E25" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="E26" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="1">
         <v>2021</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E28" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>2020</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>44</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>46</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>48</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C37" s="1">
         <v>2022</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1">
         <v>2022</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>180</v>
+        <v>93</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1">
         <v>2021</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C51" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>63</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>64</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>65</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>66</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1">
         <v>2020</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="D55" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>67</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="1">
         <v>2020</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="1">
-        <v>2019</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2021</v>
-      </c>
       <c r="D56" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="1">
         <v>2022</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>115</v>
@@ -2255,13 +2194,13 @@
       <c r="D59" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H59" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>117</v>
@@ -2272,215 +2211,203 @@
       <c r="D60" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F60" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="I60" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C61" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H61" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I61" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C62" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C63" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D63" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>75</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J64" s="8" t="s">
-        <v>180</v>
+      <c r="I64" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>180</v>
+      <c r="I65" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J66" s="8" t="s">
-        <v>180</v>
+      <c r="I66" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="1">
         <v>2020</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>180</v>
+        <v>131</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="I68" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>80</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>68</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>180</v>
+      <c r="J69" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="J70" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C71" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>180</v>
+      <c r="J71" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>140</v>
@@ -2491,13 +2418,13 @@
       <c r="D72" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>180</v>
+      <c r="J72" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>142</v>
@@ -2508,27 +2435,30 @@
       <c r="D73" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J73" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C74" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="J74" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>146</v>
@@ -2537,241 +2467,32 @@
         <v>2022</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>180</v>
+        <v>147</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C76" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>76</v>
-      </c>
-      <c r="B77" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>77</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>78</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C85" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>85</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C86" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C88" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>180</v>
+      <c r="J76" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/List of Papers.xlsx
+++ b/List of Papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/SPRINGER - Enhanced Maintenance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{025292BB-B30E-4C8C-BEB5-EA5E7024A364}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09AC4A0E-B155-4CFD-9EE9-A8DFEB2BCF91}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="158">
   <si>
     <t>Paper Title</t>
   </si>
@@ -1118,11 +1118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1581,13 +1581,13 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1">
         <v>2022</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>157</v>
@@ -1598,13 +1598,13 @@
         <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>157</v>
@@ -1615,13 +1615,13 @@
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>157</v>
@@ -1632,13 +1632,13 @@
         <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>157</v>
@@ -1649,49 +1649,52 @@
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>2021</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E31" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1700,18 +1703,15 @@
         <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K32" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1720,13 +1720,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1">
         <v>2021</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>157</v>
@@ -1737,15 +1737,18 @@
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1">
         <v>2021</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E34" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1754,33 +1757,30 @@
         <v>46</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C35" s="1">
         <v>2021</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="K35" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>157</v>
@@ -1791,38 +1791,38 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="G37" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>49</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I38" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1831,13 +1831,13 @@
         <v>50</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>157</v>
@@ -1848,47 +1848,47 @@
         <v>51</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>157</v>
@@ -1899,13 +1899,13 @@
         <v>54</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>157</v>
@@ -1916,13 +1916,13 @@
         <v>55</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>157</v>
@@ -1933,13 +1933,13 @@
         <v>56</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C45" s="1">
         <v>2022</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>157</v>
@@ -1950,15 +1950,15 @@
         <v>57</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1967,52 +1967,52 @@
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>59</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="H48" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>60</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H49" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2021,52 +2021,52 @@
         <v>61</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>62</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C51" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="J51" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>63</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="J52" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2075,15 +2075,18 @@
         <v>64</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1">
         <v>2022</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F53" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2092,13 +2095,13 @@
         <v>65</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F54" s="8" t="s">
         <v>157</v>
@@ -2112,18 +2115,18 @@
         <v>66</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1">
         <v>2020</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="J55" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K55" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2132,18 +2135,15 @@
         <v>67</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1">
         <v>2020</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K56" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2152,49 +2152,49 @@
         <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>69</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>70</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C59" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I59" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2203,66 +2203,66 @@
         <v>71</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C60" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I60" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C61" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>73</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C62" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>74</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1">
         <v>2022</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K63" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2271,13 +2271,13 @@
         <v>75</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>157</v>
@@ -2288,13 +2288,13 @@
         <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C65" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>157</v>
@@ -2305,13 +2305,13 @@
         <v>77</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>157</v>
@@ -2322,49 +2322,52 @@
         <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I67" s="8" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C68" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C69" s="1">
         <v>2022</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J69" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="K69" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2373,18 +2376,15 @@
         <v>81</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K70" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2393,13 +2393,13 @@
         <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>157</v>
@@ -2410,13 +2410,13 @@
         <v>83</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C72" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>157</v>
@@ -2427,13 +2427,13 @@
         <v>84</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1">
         <v>2021</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>157</v>
@@ -2444,13 +2444,13 @@
         <v>85</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J74" s="8" t="s">
         <v>157</v>
@@ -2461,32 +2461,15 @@
         <v>86</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C75" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>87</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="J76" s="8" t="s">
         <v>157</v>
       </c>
     </row>
